--- a/src/main/web/file/用户信息模板文件.xlsx
+++ b/src/main/web/file/用户信息模板文件.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>手机</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,14 @@
   </si>
   <si>
     <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,27 +394,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -419,27 +430,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
